--- a/natmiOut/OldD2/LR-pairs_lrc2p/Has2-Hmmr.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Has2-Hmmr.xlsx
@@ -537,52 +537,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.5443261009166</v>
+        <v>51.209624</v>
       </c>
       <c r="H2">
-        <v>47.5443261009166</v>
+        <v>153.628872</v>
       </c>
       <c r="I2">
-        <v>0.9419151463061003</v>
+        <v>0.9420574924009609</v>
       </c>
       <c r="J2">
-        <v>0.9419151463061003</v>
+        <v>0.9606108937376658</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.13221433732424</v>
+        <v>4.213102</v>
       </c>
       <c r="N2">
-        <v>4.13221433732424</v>
+        <v>8.426204</v>
       </c>
       <c r="O2">
-        <v>0.1156890727345572</v>
+        <v>0.1051110768030638</v>
       </c>
       <c r="P2">
-        <v>0.1156890727345572</v>
+        <v>0.07873041947077042</v>
       </c>
       <c r="Q2">
-        <v>196.4633459726267</v>
+        <v>215.751369293648</v>
       </c>
       <c r="R2">
-        <v>196.4633459726267</v>
+        <v>1294.508215761888</v>
       </c>
       <c r="S2">
-        <v>0.1089692898707875</v>
+        <v>0.09902067743665911</v>
       </c>
       <c r="T2">
-        <v>0.1089692898707875</v>
+        <v>0.0756292986121581</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.5443261009166</v>
+        <v>51.209624</v>
       </c>
       <c r="H3">
-        <v>47.5443261009166</v>
+        <v>153.628872</v>
       </c>
       <c r="I3">
-        <v>0.9419151463061003</v>
+        <v>0.9420574924009609</v>
       </c>
       <c r="J3">
-        <v>0.9419151463061003</v>
+        <v>0.9606108937376658</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.9355008020032</v>
+        <v>18.177566</v>
       </c>
       <c r="N3">
-        <v>16.9355008020032</v>
+        <v>54.532698</v>
       </c>
       <c r="O3">
-        <v>0.4741410353238809</v>
+        <v>0.4535051693309969</v>
       </c>
       <c r="P3">
-        <v>0.4741410353238809</v>
+        <v>0.5095274441982229</v>
       </c>
       <c r="Q3">
-        <v>805.1869728127748</v>
+        <v>930.8663200951841</v>
       </c>
       <c r="R3">
-        <v>805.1869728127748</v>
+        <v>8377.796880856657</v>
       </c>
       <c r="S3">
-        <v>0.4466006226568191</v>
+        <v>0.4272279426108321</v>
       </c>
       <c r="T3">
-        <v>0.4466006226568191</v>
+        <v>0.4894576135551236</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.5443261009166</v>
+        <v>51.209624</v>
       </c>
       <c r="H4">
-        <v>47.5443261009166</v>
+        <v>153.628872</v>
       </c>
       <c r="I4">
-        <v>0.9419151463061003</v>
+        <v>0.9420574924009609</v>
       </c>
       <c r="J4">
-        <v>0.9419151463061003</v>
+        <v>0.9606108937376658</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.25776804500929</v>
+        <v>2.368838</v>
       </c>
       <c r="N4">
-        <v>1.25776804500929</v>
+        <v>7.106514</v>
       </c>
       <c r="O4">
-        <v>0.03521357000481843</v>
+        <v>0.05909923684544454</v>
       </c>
       <c r="P4">
-        <v>0.03521357000481843</v>
+        <v>0.06639986738926598</v>
       </c>
       <c r="Q4">
-        <v>59.79973409123404</v>
+        <v>121.307303296912</v>
       </c>
       <c r="R4">
-        <v>59.79973409123404</v>
+        <v>1091.765729672208</v>
       </c>
       <c r="S4">
-        <v>0.03316819494304866</v>
+        <v>0.05567487886542996</v>
       </c>
       <c r="T4">
-        <v>0.03316819494304866</v>
+        <v>0.06378443595686528</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.5443261009166</v>
+        <v>51.209624</v>
       </c>
       <c r="H5">
-        <v>47.5443261009166</v>
+        <v>153.628872</v>
       </c>
       <c r="I5">
-        <v>0.9419151463061003</v>
+        <v>0.9420574924009609</v>
       </c>
       <c r="J5">
-        <v>0.9419151463061003</v>
+        <v>0.9606108937376658</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.53870480482024</v>
+        <v>3.809775</v>
       </c>
       <c r="N5">
-        <v>2.53870480482024</v>
+        <v>11.429325</v>
       </c>
       <c r="O5">
-        <v>0.07107579153471506</v>
+        <v>0.0950486251287988</v>
       </c>
       <c r="P5">
-        <v>0.07107579153471506</v>
+        <v>0.1067901455409533</v>
       </c>
       <c r="Q5">
-        <v>120.7010091143373</v>
+        <v>195.0971452746</v>
       </c>
       <c r="R5">
-        <v>120.7010091143373</v>
+        <v>1755.8743074714</v>
       </c>
       <c r="S5">
-        <v>0.06694736458224303</v>
+        <v>0.08954126944499516</v>
       </c>
       <c r="T5">
-        <v>0.06694736458224303</v>
+        <v>0.1025837771504706</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.5443261009166</v>
+        <v>51.209624</v>
       </c>
       <c r="H6">
-        <v>47.5443261009166</v>
+        <v>153.628872</v>
       </c>
       <c r="I6">
-        <v>0.9419151463061003</v>
+        <v>0.9420574924009609</v>
       </c>
       <c r="J6">
-        <v>0.9419151463061003</v>
+        <v>0.9606108937376658</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.49466413222911</v>
+        <v>2.505090333333333</v>
       </c>
       <c r="N6">
-        <v>2.49466413222911</v>
+        <v>7.515271</v>
       </c>
       <c r="O6">
-        <v>0.06984279049489649</v>
+        <v>0.06249854440400749</v>
       </c>
       <c r="P6">
-        <v>0.06984279049489649</v>
+        <v>0.07021909726687323</v>
       </c>
       <c r="Q6">
-        <v>118.6071250149609</v>
+        <v>128.2847340560347</v>
       </c>
       <c r="R6">
-        <v>118.6071250149609</v>
+        <v>1154.562606504312</v>
       </c>
       <c r="S6">
-        <v>0.06578598222742674</v>
+        <v>0.0588772220199494</v>
       </c>
       <c r="T6">
-        <v>0.06578598222742674</v>
+        <v>0.06745322978298318</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.5443261009166</v>
+        <v>51.209624</v>
       </c>
       <c r="H7">
-        <v>47.5443261009166</v>
+        <v>153.628872</v>
       </c>
       <c r="I7">
-        <v>0.9419151463061003</v>
+        <v>0.9420574924009609</v>
       </c>
       <c r="J7">
-        <v>0.9419151463061003</v>
+        <v>0.9606108937376658</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.35942480529827</v>
+        <v>9.0080075</v>
       </c>
       <c r="N7">
-        <v>8.35942480529827</v>
+        <v>18.016015</v>
       </c>
       <c r="O7">
-        <v>0.2340377399071321</v>
+        <v>0.2247373474876884</v>
       </c>
       <c r="P7">
-        <v>0.2340377399071321</v>
+        <v>0.1683330261339141</v>
       </c>
       <c r="Q7">
-        <v>397.4432189591922</v>
+        <v>461.29667706418</v>
       </c>
       <c r="R7">
-        <v>397.4432189591922</v>
+        <v>2767.78006238508</v>
       </c>
       <c r="S7">
-        <v>0.2204436920257754</v>
+        <v>0.2117155020230951</v>
       </c>
       <c r="T7">
-        <v>0.2204436920257754</v>
+        <v>0.1617025386800651</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.93190446759133</v>
+        <v>3.1497165</v>
       </c>
       <c r="H8">
-        <v>2.93190446759133</v>
+        <v>6.299433000000001</v>
       </c>
       <c r="I8">
-        <v>0.05808485369389969</v>
+        <v>0.05794250759903903</v>
       </c>
       <c r="J8">
-        <v>0.05808485369389969</v>
+        <v>0.03938910626233424</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.13221433732424</v>
+        <v>4.213102</v>
       </c>
       <c r="N8">
-        <v>4.13221433732424</v>
+        <v>8.426204</v>
       </c>
       <c r="O8">
-        <v>0.1156890727345572</v>
+        <v>0.1051110768030638</v>
       </c>
       <c r="P8">
-        <v>0.1156890727345572</v>
+        <v>0.07873041947077042</v>
       </c>
       <c r="Q8">
-        <v>12.11525767664589</v>
+        <v>13.270076885583</v>
       </c>
       <c r="R8">
-        <v>12.11525767664589</v>
+        <v>53.08030754233201</v>
       </c>
       <c r="S8">
-        <v>0.006719782863769672</v>
+        <v>0.006090399366404701</v>
       </c>
       <c r="T8">
-        <v>0.006719782863769672</v>
+        <v>0.003101120858612325</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.93190446759133</v>
+        <v>3.1497165</v>
       </c>
       <c r="H9">
-        <v>2.93190446759133</v>
+        <v>6.299433000000001</v>
       </c>
       <c r="I9">
-        <v>0.05808485369389969</v>
+        <v>0.05794250759903903</v>
       </c>
       <c r="J9">
-        <v>0.05808485369389969</v>
+        <v>0.03938910626233424</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.9355008020032</v>
+        <v>18.177566</v>
       </c>
       <c r="N9">
-        <v>16.9355008020032</v>
+        <v>54.532698</v>
       </c>
       <c r="O9">
-        <v>0.4741410353238809</v>
+        <v>0.4535051693309969</v>
       </c>
       <c r="P9">
-        <v>0.4741410353238809</v>
+        <v>0.5095274441982229</v>
       </c>
       <c r="Q9">
-        <v>49.65327046228973</v>
+        <v>57.25417956003901</v>
       </c>
       <c r="R9">
-        <v>49.65327046228973</v>
+        <v>343.525077360234</v>
       </c>
       <c r="S9">
-        <v>0.02754041266706174</v>
+        <v>0.02627722672016477</v>
       </c>
       <c r="T9">
-        <v>0.02754041266706174</v>
+        <v>0.02006983064309939</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.93190446759133</v>
+        <v>3.1497165</v>
       </c>
       <c r="H10">
-        <v>2.93190446759133</v>
+        <v>6.299433000000001</v>
       </c>
       <c r="I10">
-        <v>0.05808485369389969</v>
+        <v>0.05794250759903903</v>
       </c>
       <c r="J10">
-        <v>0.05808485369389969</v>
+        <v>0.03938910626233424</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.25776804500929</v>
+        <v>2.368838</v>
       </c>
       <c r="N10">
-        <v>1.25776804500929</v>
+        <v>7.106514</v>
       </c>
       <c r="O10">
-        <v>0.03521357000481843</v>
+        <v>0.05909923684544454</v>
       </c>
       <c r="P10">
-        <v>0.03521357000481843</v>
+        <v>0.06639986738926598</v>
       </c>
       <c r="Q10">
-        <v>3.687655750356351</v>
+        <v>7.461168134427</v>
       </c>
       <c r="R10">
-        <v>3.687655750356351</v>
+        <v>44.767008806562</v>
       </c>
       <c r="S10">
-        <v>0.002045375061769773</v>
+        <v>0.003424357980014578</v>
       </c>
       <c r="T10">
-        <v>0.002045375061769773</v>
+        <v>0.0026154314324007</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.93190446759133</v>
+        <v>3.1497165</v>
       </c>
       <c r="H11">
-        <v>2.93190446759133</v>
+        <v>6.299433000000001</v>
       </c>
       <c r="I11">
-        <v>0.05808485369389969</v>
+        <v>0.05794250759903903</v>
       </c>
       <c r="J11">
-        <v>0.05808485369389969</v>
+        <v>0.03938910626233424</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.53870480482024</v>
+        <v>3.809775</v>
       </c>
       <c r="N11">
-        <v>2.53870480482024</v>
+        <v>11.429325</v>
       </c>
       <c r="O11">
-        <v>0.07107579153471506</v>
+        <v>0.0950486251287988</v>
       </c>
       <c r="P11">
-        <v>0.07107579153471506</v>
+        <v>0.1067901455409533</v>
       </c>
       <c r="Q11">
-        <v>7.443239959148037</v>
+        <v>11.9997111787875</v>
       </c>
       <c r="R11">
-        <v>7.443239959148037</v>
+        <v>71.99826707272501</v>
       </c>
       <c r="S11">
-        <v>0.004128426952472038</v>
+        <v>0.005507355683803637</v>
       </c>
       <c r="T11">
-        <v>0.004128426952472038</v>
+        <v>0.00420636839048275</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.93190446759133</v>
+        <v>3.1497165</v>
       </c>
       <c r="H12">
-        <v>2.93190446759133</v>
+        <v>6.299433000000001</v>
       </c>
       <c r="I12">
-        <v>0.05808485369389969</v>
+        <v>0.05794250759903903</v>
       </c>
       <c r="J12">
-        <v>0.05808485369389969</v>
+        <v>0.03938910626233424</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.49466413222911</v>
+        <v>2.505090333333333</v>
       </c>
       <c r="N12">
-        <v>2.49466413222911</v>
+        <v>7.515271</v>
       </c>
       <c r="O12">
-        <v>0.06984279049489649</v>
+        <v>0.06249854440400749</v>
       </c>
       <c r="P12">
-        <v>0.06984279049489649</v>
+        <v>0.07021909726687323</v>
       </c>
       <c r="Q12">
-        <v>7.314116914422376</v>
+        <v>7.890324356890501</v>
       </c>
       <c r="R12">
-        <v>7.314116914422376</v>
+        <v>47.34194614134301</v>
       </c>
       <c r="S12">
-        <v>0.00405680826746975</v>
+        <v>0.003621322384058082</v>
       </c>
       <c r="T12">
-        <v>0.00405680826746975</v>
+        <v>0.002765867483890053</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.93190446759133</v>
+        <v>3.1497165</v>
       </c>
       <c r="H13">
-        <v>2.93190446759133</v>
+        <v>6.299433000000001</v>
       </c>
       <c r="I13">
-        <v>0.05808485369389969</v>
+        <v>0.05794250759903903</v>
       </c>
       <c r="J13">
-        <v>0.05808485369389969</v>
+        <v>0.03938910626233424</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.35942480529827</v>
+        <v>9.0080075</v>
       </c>
       <c r="N13">
-        <v>8.35942480529827</v>
+        <v>18.016015</v>
       </c>
       <c r="O13">
-        <v>0.2340377399071321</v>
+        <v>0.2247373474876884</v>
       </c>
       <c r="P13">
-        <v>0.2340377399071321</v>
+        <v>0.1683330261339141</v>
       </c>
       <c r="Q13">
-        <v>24.50903493314778</v>
+        <v>28.37266985487375</v>
       </c>
       <c r="R13">
-        <v>24.50903493314778</v>
+        <v>113.490679419495</v>
       </c>
       <c r="S13">
-        <v>0.01359404788135672</v>
+        <v>0.01302184546459326</v>
       </c>
       <c r="T13">
-        <v>0.01359404788135672</v>
+        <v>0.006630487453849031</v>
       </c>
     </row>
   </sheetData>
